--- a/medicine/Psychotrope/Monerac/Monerac.xlsx
+++ b/medicine/Psychotrope/Monerac/Monerac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le monerac N[N 1] est un cépage noir de cuve français récent (1960). C'est un métis créé par l'INRA.
@@ -512,10 +524,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monerac a été créé par Paul Truel, chercheur de l'INRA au domaine de Vassal, en 1960. C'est un croisement entre le grenache noir N et l'aramon N[1]. 
-En 1994, il ne représentait que 2 hectares en France[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monerac a été créé par Paul Truel, chercheur de l'INRA au domaine de Vassal, en 1960. C'est un croisement entre le grenache noir N et l'aramon N. 
+En 1994, il ne représentait que 2 hectares en France.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Caractères ampélographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'apex du rameau (extrémité) est cotonneux. Les jeunes feuilles sont jaunâtres. Le rameau est vert.
 Les feuilles adultes sont orbiculaires, trilobées, avec un sinus pétiolaire peu ouvert ou fermé. Les dents sont courtes et droites.
@@ -579,12 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culturales
-C'est un cépage vigoureux a port demi-érigé. Il peut être conduit en gobelet ou palissé sur cordon, mais doit être taillé court. Il donne une production régulière.
-Sensibilité aux maladies
-Ses grappes lâches le rendent peu sensible à la pourriture grise.
-Technologiques
-Le potentiel d'accumulation du sucre est très important. Les vins sont souples, manquant parfois un peu de couleur. Sa destination est essentiellement dirigée vers la production de vin rosé. 
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un cépage vigoureux a port demi-érigé. Il peut être conduit en gobelet ou palissé sur cordon, mais doit être taillé court. Il donne une production régulière.
 </t>
         </is>
       </c>
@@ -610,10 +627,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses grappes lâches le rendent peu sensible à la pourriture grise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Monerac</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monerac</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Technologiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le potentiel d'accumulation du sucre est très important. Les vins sont souples, manquant parfois un peu de couleur. Sa destination est essentiellement dirigée vers la production de vin rosé. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Monerac</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monerac</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
